--- a/SP_Sklad/TempLate/OrderedMat(28).xlsx
+++ b/SP_Sklad/TempLate/OrderedMat(28).xlsx
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -67,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -83,13 +83,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
@@ -515,124 +508,121 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,7 +995,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:K105"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1027,16 +1017,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -1109,11 +1099,11 @@
       <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="41" t="s">
         <v>6</v>
       </c>
@@ -1129,9 +1119,9 @@
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
@@ -1243,123 +1233,17 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B19:F19"/>
+  <mergeCells count="9">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/OrderedMat(28).xlsx
+++ b/SP_Sklad/TempLate/OrderedMat(28).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="4350" yWindow="4125" windowWidth="14175" windowHeight="7260"/>
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -65,11 +65,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,7 +571,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -580,30 +579,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,6 +626,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +787,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -817,7 +821,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -993,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:K17"/>
   <sheetViews>
@@ -1002,7 +1005,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -1016,7 +1019,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="27" customHeight="1">
       <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="7.5" customHeight="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1038,7 +1041,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="13.5" customHeight="1">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1048,7 +1051,7 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
     </row>
-    <row r="4" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1067,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
@@ -1094,9 +1097,9 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+    <row r="7" spans="2:11" ht="7.5" customHeight="1"/>
+    <row r="8" spans="2:11" ht="17.25" customHeight="1">
+      <c r="B8" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -1104,30 +1107,30 @@
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="52"/>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42"/>
+    <row r="9" spans="2:11" ht="15" customHeight="1">
+      <c r="B9" s="48"/>
       <c r="C9" s="53"/>
       <c r="D9" s="54"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="2:11" ht="9" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1135,32 +1138,32 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="e">
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B11" s="41" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" customHeight="1">
       <c r="B12" s="25" t="e">
         <f>MatInDet_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="46" t="e">
+      <c r="C12" s="44" t="e">
         <f>MatInDet_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="24" t="e">
         <f>MatInDet_MSRNAME</f>
         <v>#NAME?</v>
@@ -1173,13 +1176,13 @@
         <f>I12/G12</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="38" t="e">
+      <c r="I12" s="37" t="e">
         <f>MatInDet_ONSUM</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
+    <row r="13" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B13" s="39"/>
       <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
@@ -1188,11 +1191,11 @@
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="12.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
@@ -1202,7 +1205,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="12.75" customHeight="1">
       <c r="B15" s="9"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1211,7 +1214,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="12.75" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="14" t="s">
         <v>3</v>
@@ -1219,11 +1222,17 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="56" t="e">
+        <f>SummaryField_TotalAmount</f>
+        <v>#NAME?</v>
+      </c>
       <c r="H16" s="21"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="40" t="e">
+        <f>SummaryField_TotalOnSum</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="12.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2"/>
@@ -1235,15 +1244,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
